--- a/data/pca/factorExposure/factorExposure_2016-05-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-05-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01028525738670628</v>
+        <v>-0.01309201909833772</v>
       </c>
       <c r="C2">
-        <v>-0.05522705078198722</v>
+        <v>0.03921191213621525</v>
       </c>
       <c r="D2">
-        <v>-0.0400602827613039</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05528225494742614</v>
+      </c>
+      <c r="E2">
+        <v>-0.08845246744186555</v>
+      </c>
+      <c r="F2">
+        <v>0.08437819124499482</v>
+      </c>
+      <c r="G2">
+        <v>0.0319007283053629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04098537146097248</v>
+        <v>-0.02584604661286833</v>
       </c>
       <c r="C3">
-        <v>-0.1191358823156331</v>
+        <v>0.06677113762947602</v>
       </c>
       <c r="D3">
-        <v>-0.09505661828315515</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07663006353529203</v>
+      </c>
+      <c r="E3">
+        <v>-0.06873576547240989</v>
+      </c>
+      <c r="F3">
+        <v>-0.02820707150175297</v>
+      </c>
+      <c r="G3">
+        <v>0.05311004990305643</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06040481471685905</v>
+        <v>-0.05858148982411682</v>
       </c>
       <c r="C4">
-        <v>-0.06101465671665906</v>
+        <v>0.06368814061538554</v>
       </c>
       <c r="D4">
-        <v>-0.02348701063601834</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.04810637482081856</v>
+      </c>
+      <c r="E4">
+        <v>-0.08761034719897161</v>
+      </c>
+      <c r="F4">
+        <v>0.04620540338281207</v>
+      </c>
+      <c r="G4">
+        <v>0.09506880166601944</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03982069594051574</v>
+        <v>-0.03531092326422899</v>
       </c>
       <c r="C6">
-        <v>-0.03669202270644658</v>
+        <v>0.02769927535223616</v>
       </c>
       <c r="D6">
-        <v>-0.02339586652368124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.05539544991201278</v>
+      </c>
+      <c r="E6">
+        <v>-0.08820982115540617</v>
+      </c>
+      <c r="F6">
+        <v>0.03327610368355036</v>
+      </c>
+      <c r="G6">
+        <v>0.07136049467218404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02382011795689394</v>
+        <v>-0.01920806344922015</v>
       </c>
       <c r="C7">
-        <v>-0.04289861810988881</v>
+        <v>0.03714770106130721</v>
       </c>
       <c r="D7">
-        <v>0.008777733466257164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03345462750656264</v>
+      </c>
+      <c r="E7">
+        <v>-0.06497148089695891</v>
+      </c>
+      <c r="F7">
+        <v>0.07435213839382941</v>
+      </c>
+      <c r="G7">
+        <v>0.0934340981833533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.00558114596332856</v>
+        <v>-0.00365932841498782</v>
       </c>
       <c r="C8">
-        <v>-0.03681696735385713</v>
+        <v>0.03244168813872209</v>
       </c>
       <c r="D8">
-        <v>-0.0258253929964428</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02949306366402603</v>
+      </c>
+      <c r="E8">
+        <v>-0.05906648052268344</v>
+      </c>
+      <c r="F8">
+        <v>0.02220178609326986</v>
+      </c>
+      <c r="G8">
+        <v>0.04097302953329481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.034793008892176</v>
+        <v>-0.03810179969304728</v>
       </c>
       <c r="C9">
-        <v>-0.04726468561367914</v>
+        <v>0.05069242903679154</v>
       </c>
       <c r="D9">
-        <v>-0.009125456694456975</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.03426355469786304</v>
+      </c>
+      <c r="E9">
+        <v>-0.07291776896321106</v>
+      </c>
+      <c r="F9">
+        <v>0.05834730553715919</v>
+      </c>
+      <c r="G9">
+        <v>0.08720043988501568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07609878969503586</v>
+        <v>-0.1014865049841318</v>
       </c>
       <c r="C10">
-        <v>0.1875321334597934</v>
+        <v>-0.1966444210816262</v>
       </c>
       <c r="D10">
-        <v>0.008892805445987124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01470829894808346</v>
+      </c>
+      <c r="E10">
+        <v>-0.03764621183701243</v>
+      </c>
+      <c r="F10">
+        <v>0.01899468483362475</v>
+      </c>
+      <c r="G10">
+        <v>0.03179819519394057</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04209674636226839</v>
+        <v>-0.03733375342244322</v>
       </c>
       <c r="C11">
-        <v>-0.05074550381582799</v>
+        <v>0.04743151571413359</v>
       </c>
       <c r="D11">
-        <v>-0.01052976589658703</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.02969780797112927</v>
+      </c>
+      <c r="E11">
+        <v>-0.02669499537834358</v>
+      </c>
+      <c r="F11">
+        <v>0.04490792586983228</v>
+      </c>
+      <c r="G11">
+        <v>0.06934828674386294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.0440123832403282</v>
+        <v>-0.03912290953960932</v>
       </c>
       <c r="C12">
-        <v>-0.04711813321022047</v>
+        <v>0.04541871464560183</v>
       </c>
       <c r="D12">
-        <v>-0.000328014719581587</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.0239941752386533</v>
+      </c>
+      <c r="E12">
+        <v>-0.03470544100498264</v>
+      </c>
+      <c r="F12">
+        <v>0.04719952359016254</v>
+      </c>
+      <c r="G12">
+        <v>0.06607570808552019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01368636834634371</v>
+        <v>-0.01144671606884265</v>
       </c>
       <c r="C13">
-        <v>-0.05344965703036993</v>
+        <v>0.0416633868826543</v>
       </c>
       <c r="D13">
-        <v>-0.005170921377483025</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.03976785418414334</v>
+      </c>
+      <c r="E13">
+        <v>-0.09982144017679581</v>
+      </c>
+      <c r="F13">
+        <v>0.06513349431600124</v>
+      </c>
+      <c r="G13">
+        <v>0.09624613262651405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.008497306165525667</v>
+        <v>-0.004963111286432762</v>
       </c>
       <c r="C14">
-        <v>-0.0418813915955051</v>
+        <v>0.03310413222253266</v>
       </c>
       <c r="D14">
-        <v>0.01288802765176244</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02118388640919972</v>
+      </c>
+      <c r="E14">
+        <v>-0.0500743530594401</v>
+      </c>
+      <c r="F14">
+        <v>0.0805087928232039</v>
+      </c>
+      <c r="G14">
+        <v>0.07906586147408923</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0001589953556227296</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005401300842922355</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.007216253069226919</v>
+      </c>
+      <c r="E15">
+        <v>-0.004796939343134899</v>
+      </c>
+      <c r="F15">
+        <v>0.006024341714015156</v>
+      </c>
+      <c r="G15">
+        <v>0.006756167914804844</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03883787242569614</v>
+        <v>-0.03475754437597747</v>
       </c>
       <c r="C16">
-        <v>-0.04949694856478834</v>
+        <v>0.04483740782512124</v>
       </c>
       <c r="D16">
-        <v>-0.003271657384316239</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02309619682103069</v>
+      </c>
+      <c r="E16">
+        <v>-0.04116289588489763</v>
+      </c>
+      <c r="F16">
+        <v>0.05406182484595929</v>
+      </c>
+      <c r="G16">
+        <v>0.05637822679138824</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02409830051167721</v>
+        <v>-0.01790439114273706</v>
       </c>
       <c r="C19">
-        <v>-0.06006762665687946</v>
+        <v>0.04375043405912907</v>
       </c>
       <c r="D19">
-        <v>-0.08595428484153469</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.08785624746939488</v>
+      </c>
+      <c r="E19">
+        <v>-0.1126158781864883</v>
+      </c>
+      <c r="F19">
+        <v>0.06692243126815578</v>
+      </c>
+      <c r="G19">
+        <v>0.04713683469129352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01715529922735139</v>
+        <v>-0.01377436923792886</v>
       </c>
       <c r="C20">
-        <v>-0.04747267711201679</v>
+        <v>0.03868479396663815</v>
       </c>
       <c r="D20">
-        <v>-0.005320052172596816</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.02901923416455143</v>
+      </c>
+      <c r="E20">
+        <v>-0.07718772589567822</v>
+      </c>
+      <c r="F20">
+        <v>0.05442201270117093</v>
+      </c>
+      <c r="G20">
+        <v>0.06782709445611734</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01144742031520335</v>
+        <v>-0.01008525941178396</v>
       </c>
       <c r="C21">
-        <v>-0.05064333359651466</v>
+        <v>0.04084747417991787</v>
       </c>
       <c r="D21">
-        <v>-0.03087626196533646</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.05301608869211361</v>
+      </c>
+      <c r="E21">
+        <v>-0.1200508301853424</v>
+      </c>
+      <c r="F21">
+        <v>0.0900667863383077</v>
+      </c>
+      <c r="G21">
+        <v>0.1039257081948165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.001831359573576</v>
+        <v>-0.0026740617601508</v>
       </c>
       <c r="C22">
-        <v>-0.001245775176214023</v>
+        <v>0.02668553344572849</v>
       </c>
       <c r="D22">
-        <v>-0.004287668408270587</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.04165119194425146</v>
+      </c>
+      <c r="E22">
+        <v>-0.04315907508906674</v>
+      </c>
+      <c r="F22">
+        <v>-0.009591490445912627</v>
+      </c>
+      <c r="G22">
+        <v>0.05674324806205214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001837074521410027</v>
+        <v>-0.002758483882775668</v>
       </c>
       <c r="C23">
-        <v>-0.001246301679719193</v>
+        <v>0.02682678543755997</v>
       </c>
       <c r="D23">
-        <v>-0.004291954611076617</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.04120451567006517</v>
+      </c>
+      <c r="E23">
+        <v>-0.04340931492878452</v>
+      </c>
+      <c r="F23">
+        <v>-0.009884086208691157</v>
+      </c>
+      <c r="G23">
+        <v>0.0567368545823762</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03576574686687282</v>
+        <v>-0.03499778308008794</v>
       </c>
       <c r="C24">
-        <v>-0.05017431432973374</v>
+        <v>0.052111689110881</v>
       </c>
       <c r="D24">
-        <v>-0.005833077222499847</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02276393409010931</v>
+      </c>
+      <c r="E24">
+        <v>-0.04252053547689725</v>
+      </c>
+      <c r="F24">
+        <v>0.05548606255714091</v>
+      </c>
+      <c r="G24">
+        <v>0.06910922855037956</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04886513894944671</v>
+        <v>-0.04410744482526809</v>
       </c>
       <c r="C25">
-        <v>-0.06077875821851217</v>
+        <v>0.05597871617636416</v>
       </c>
       <c r="D25">
-        <v>0.00615971937621475</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02110583208808489</v>
+      </c>
+      <c r="E25">
+        <v>-0.03257417718064925</v>
+      </c>
+      <c r="F25">
+        <v>0.04736380095894642</v>
+      </c>
+      <c r="G25">
+        <v>0.08017342459366536</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01677836201194894</v>
+        <v>-0.01514299321273131</v>
       </c>
       <c r="C26">
-        <v>-0.01719464619765577</v>
+        <v>0.01702567997825273</v>
       </c>
       <c r="D26">
-        <v>0.002064318473186721</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02210228246325226</v>
+      </c>
+      <c r="E26">
+        <v>-0.05234071752206543</v>
+      </c>
+      <c r="F26">
+        <v>0.06099520808275505</v>
+      </c>
+      <c r="G26">
+        <v>0.04846348512180969</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.0915770855427409</v>
+        <v>-0.1372115641015638</v>
       </c>
       <c r="C28">
-        <v>0.2459880652949852</v>
+        <v>-0.2529451220739895</v>
       </c>
       <c r="D28">
-        <v>0.008869448515753423</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.03064398622908766</v>
+      </c>
+      <c r="E28">
+        <v>-0.05553223055589508</v>
+      </c>
+      <c r="F28">
+        <v>0.02424313320614538</v>
+      </c>
+      <c r="G28">
+        <v>0.04680718353967192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.007429409840884575</v>
+        <v>-0.005588439994608852</v>
       </c>
       <c r="C29">
-        <v>-0.03376904857065136</v>
+        <v>0.02957794554398346</v>
       </c>
       <c r="D29">
-        <v>0.01837368867399701</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01412697862859206</v>
+      </c>
+      <c r="E29">
+        <v>-0.04818359453330057</v>
+      </c>
+      <c r="F29">
+        <v>0.06844189324113702</v>
+      </c>
+      <c r="G29">
+        <v>0.08327006654775261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04476544595868107</v>
+        <v>-0.04127643578387905</v>
       </c>
       <c r="C30">
-        <v>-0.05335087582618271</v>
+        <v>0.05612921085728259</v>
       </c>
       <c r="D30">
-        <v>-0.06650800437257882</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.09529821268051748</v>
+      </c>
+      <c r="E30">
+        <v>-0.07972955792922885</v>
+      </c>
+      <c r="F30">
+        <v>0.07773241702104183</v>
+      </c>
+      <c r="G30">
+        <v>0.06873857946978415</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05841061419975318</v>
+        <v>-0.05718744209219414</v>
       </c>
       <c r="C31">
-        <v>-0.04516463746675461</v>
+        <v>0.06122673691523443</v>
       </c>
       <c r="D31">
-        <v>0.04181553480483794</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01948636649291511</v>
+      </c>
+      <c r="E31">
+        <v>-0.06656876011902224</v>
+      </c>
+      <c r="F31">
+        <v>0.02931456590334732</v>
+      </c>
+      <c r="G31">
+        <v>0.08610098970258688</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.0007447907735236543</v>
+        <v>-0.004928732111394746</v>
       </c>
       <c r="C32">
-        <v>-0.04556207403573091</v>
+        <v>0.03569876243448378</v>
       </c>
       <c r="D32">
-        <v>-0.04880375445952571</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0536277376640422</v>
+      </c>
+      <c r="E32">
+        <v>-0.05606098969936413</v>
+      </c>
+      <c r="F32">
+        <v>0.07001923527660101</v>
+      </c>
+      <c r="G32">
+        <v>0.06376959383349806</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03146136911109704</v>
+        <v>-0.02667845088769561</v>
       </c>
       <c r="C33">
-        <v>-0.05929829198238725</v>
+        <v>0.05272612298811908</v>
       </c>
       <c r="D33">
-        <v>-0.03270036465701098</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.06549494498103087</v>
+      </c>
+      <c r="E33">
+        <v>-0.09136986785418329</v>
+      </c>
+      <c r="F33">
+        <v>0.07650925319758306</v>
+      </c>
+      <c r="G33">
+        <v>0.09879890425714737</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04635485304509768</v>
+        <v>-0.04158468629361587</v>
       </c>
       <c r="C34">
-        <v>-0.0653103445772617</v>
+        <v>0.06328835492532627</v>
       </c>
       <c r="D34">
-        <v>-0.01433244343792738</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03689150909764682</v>
+      </c>
+      <c r="E34">
+        <v>-0.01597485094957268</v>
+      </c>
+      <c r="F34">
+        <v>0.05788850851339763</v>
+      </c>
+      <c r="G34">
+        <v>0.0703992345482644</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01663196130472614</v>
+        <v>-0.01446975487002757</v>
       </c>
       <c r="C36">
-        <v>-0.01684260261339449</v>
+        <v>0.0131793039671355</v>
       </c>
       <c r="D36">
-        <v>0.006780942064061093</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02033296924670021</v>
+      </c>
+      <c r="E36">
+        <v>-0.0594557802876159</v>
+      </c>
+      <c r="F36">
+        <v>0.05266119533766944</v>
+      </c>
+      <c r="G36">
+        <v>0.06741700902055371</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02937678251614604</v>
+        <v>-0.02327897059104369</v>
       </c>
       <c r="C38">
-        <v>-0.03079958313922188</v>
+        <v>0.02346867593528317</v>
       </c>
       <c r="D38">
-        <v>0.01811181429936834</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01835812242318908</v>
+      </c>
+      <c r="E38">
+        <v>-0.05102226239305699</v>
+      </c>
+      <c r="F38">
+        <v>0.04609986832988264</v>
+      </c>
+      <c r="G38">
+        <v>0.04885133035226849</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04671730669668382</v>
+        <v>-0.04068295738147747</v>
       </c>
       <c r="C39">
-        <v>-0.06335579284111331</v>
+        <v>0.06285393396780262</v>
       </c>
       <c r="D39">
-        <v>-0.01431021360629513</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.04725969073060778</v>
+      </c>
+      <c r="E39">
+        <v>-0.04956658683410179</v>
+      </c>
+      <c r="F39">
+        <v>0.07810232841141523</v>
+      </c>
+      <c r="G39">
+        <v>0.06388741730930125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01155008319899055</v>
+        <v>-0.01378541503822643</v>
       </c>
       <c r="C40">
-        <v>-0.04961202083299563</v>
+        <v>0.03706864463295243</v>
       </c>
       <c r="D40">
-        <v>-0.01758226029074607</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.02564087747365999</v>
+      </c>
+      <c r="E40">
+        <v>-0.08516763168550817</v>
+      </c>
+      <c r="F40">
+        <v>0.04005199623208001</v>
+      </c>
+      <c r="G40">
+        <v>0.1076465982288679</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02208456636587651</v>
+        <v>-0.01891047174904602</v>
       </c>
       <c r="C41">
-        <v>-0.01457227234945133</v>
+        <v>0.01062690775676052</v>
       </c>
       <c r="D41">
-        <v>0.002128157177345048</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01293376165937691</v>
+      </c>
+      <c r="E41">
+        <v>-0.06108050406024917</v>
+      </c>
+      <c r="F41">
+        <v>0.04783961387348024</v>
+      </c>
+      <c r="G41">
+        <v>0.0541399295515478</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04101664973847814</v>
+        <v>-0.02979958657231752</v>
       </c>
       <c r="C43">
-        <v>-0.03259667937011878</v>
+        <v>0.02413097253422441</v>
       </c>
       <c r="D43">
-        <v>-0.02472843979666054</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04163549680929578</v>
+      </c>
+      <c r="E43">
+        <v>-0.07784643491723897</v>
+      </c>
+      <c r="F43">
+        <v>0.04308266729806621</v>
+      </c>
+      <c r="G43">
+        <v>0.08315171430057751</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01401442894701573</v>
+        <v>-0.01526764935141485</v>
       </c>
       <c r="C44">
-        <v>-0.0661259282128993</v>
+        <v>0.04725292374711906</v>
       </c>
       <c r="D44">
-        <v>-0.006074139900738645</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0307219350508443</v>
+      </c>
+      <c r="E44">
+        <v>-0.08620866075636781</v>
+      </c>
+      <c r="F44">
+        <v>0.06134759197193539</v>
+      </c>
+      <c r="G44">
+        <v>0.05030161837657914</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.008889090387248645</v>
+        <v>-0.009213430807548752</v>
       </c>
       <c r="C46">
-        <v>-0.02966507405284287</v>
+        <v>0.02981143988246994</v>
       </c>
       <c r="D46">
-        <v>0.02017268749966802</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.008118195679311118</v>
+      </c>
+      <c r="E46">
+        <v>-0.05772930653540281</v>
+      </c>
+      <c r="F46">
+        <v>0.08077673174077903</v>
+      </c>
+      <c r="G46">
+        <v>0.08297207240294278</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.0859026885665459</v>
+        <v>-0.08930597344055832</v>
       </c>
       <c r="C47">
-        <v>-0.07159876088960428</v>
+        <v>0.08149169164801341</v>
       </c>
       <c r="D47">
-        <v>0.04013957506729667</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02715410374382388</v>
+      </c>
+      <c r="E47">
+        <v>-0.06841971788807238</v>
+      </c>
+      <c r="F47">
+        <v>0.02543467307790628</v>
+      </c>
+      <c r="G47">
+        <v>0.07497169785476639</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01921851087135328</v>
+        <v>-0.01726788151354498</v>
       </c>
       <c r="C48">
-        <v>-0.01413286682132191</v>
+        <v>0.01536679372098213</v>
       </c>
       <c r="D48">
-        <v>0.02229548146229428</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.00756120732383017</v>
+      </c>
+      <c r="E48">
+        <v>-0.07032967655875359</v>
+      </c>
+      <c r="F48">
+        <v>0.06705609653393038</v>
+      </c>
+      <c r="G48">
+        <v>0.07581086071512204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08214268684101819</v>
+        <v>-0.07114573684798409</v>
       </c>
       <c r="C50">
-        <v>-0.0826709303529856</v>
+        <v>0.07545180535745885</v>
       </c>
       <c r="D50">
-        <v>0.04053417381226141</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.01035849879200183</v>
+      </c>
+      <c r="E50">
+        <v>-0.07484797415653577</v>
+      </c>
+      <c r="F50">
+        <v>0.002669467741947773</v>
+      </c>
+      <c r="G50">
+        <v>0.09879876110670657</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01653652145603545</v>
+        <v>-0.01036290370906342</v>
       </c>
       <c r="C51">
-        <v>-0.04895956305124372</v>
+        <v>0.03164522278965212</v>
       </c>
       <c r="D51">
-        <v>-0.03393650638172273</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05207140290961272</v>
+      </c>
+      <c r="E51">
+        <v>-0.05046464418461885</v>
+      </c>
+      <c r="F51">
+        <v>0.07137897299326082</v>
+      </c>
+      <c r="G51">
+        <v>0.06184880283562574</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08416676996349942</v>
+        <v>-0.09642657166548377</v>
       </c>
       <c r="C53">
-        <v>-0.07598670928081076</v>
+        <v>0.08555457664100113</v>
       </c>
       <c r="D53">
-        <v>0.06143520950335902</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.06152004407750591</v>
+      </c>
+      <c r="E53">
+        <v>-0.06022954825182068</v>
+      </c>
+      <c r="F53">
+        <v>0.02410957463740266</v>
+      </c>
+      <c r="G53">
+        <v>0.07411075598470664</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03406344712295309</v>
+        <v>-0.02792810552268704</v>
       </c>
       <c r="C54">
-        <v>-0.03924910601512484</v>
+        <v>0.03333186071896306</v>
       </c>
       <c r="D54">
-        <v>0.006559792145578347</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02071253375395562</v>
+      </c>
+      <c r="E54">
+        <v>-0.05855494858803728</v>
+      </c>
+      <c r="F54">
+        <v>0.07320475846136001</v>
+      </c>
+      <c r="G54">
+        <v>0.08079316135398255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07787243276421094</v>
+        <v>-0.08796663448610667</v>
       </c>
       <c r="C55">
-        <v>-0.05501991088330907</v>
+        <v>0.06810815380258241</v>
       </c>
       <c r="D55">
-        <v>0.06654867236830055</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.06280539972945044</v>
+      </c>
+      <c r="E55">
+        <v>-0.04016163986405571</v>
+      </c>
+      <c r="F55">
+        <v>0.008941516284232467</v>
+      </c>
+      <c r="G55">
+        <v>0.05400852247139146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1487775335991303</v>
+        <v>-0.1508998280603594</v>
       </c>
       <c r="C56">
-        <v>-0.08970754005383776</v>
+        <v>0.104228312287336</v>
       </c>
       <c r="D56">
-        <v>0.05769056091266596</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05904785096280297</v>
+      </c>
+      <c r="E56">
+        <v>-0.04127855477539899</v>
+      </c>
+      <c r="F56">
+        <v>-0.01259136512051502</v>
+      </c>
+      <c r="G56">
+        <v>0.02471881149125044</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.03986293772018171</v>
+        <v>-0.0247780351877404</v>
       </c>
       <c r="C58">
-        <v>-0.03519656048592423</v>
+        <v>0.02765604159645757</v>
       </c>
       <c r="D58">
-        <v>-0.6309704164172822</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3695530657220275</v>
+      </c>
+      <c r="E58">
+        <v>-0.6613256172400533</v>
+      </c>
+      <c r="F58">
+        <v>-0.4245173053212281</v>
+      </c>
+      <c r="G58">
+        <v>-0.4190251166426146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.129822056083637</v>
+        <v>-0.1438655246657223</v>
       </c>
       <c r="C59">
-        <v>0.1979714977556896</v>
+        <v>-0.1885012303433215</v>
       </c>
       <c r="D59">
-        <v>-0.02607892408098198</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02736703683238444</v>
+      </c>
+      <c r="E59">
+        <v>-0.03016241815322639</v>
+      </c>
+      <c r="F59">
+        <v>0.03127681392220605</v>
+      </c>
+      <c r="G59">
+        <v>-0.01451577172409724</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3082411352336127</v>
+        <v>-0.2782421645461456</v>
       </c>
       <c r="C60">
-        <v>-0.1083858562591767</v>
+        <v>0.1084286800329863</v>
       </c>
       <c r="D60">
-        <v>-0.1849278250156206</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2688472533512772</v>
+      </c>
+      <c r="E60">
+        <v>0.2389639920592325</v>
+      </c>
+      <c r="F60">
+        <v>-0.08207660625919717</v>
+      </c>
+      <c r="G60">
+        <v>0.0309697856144464</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04422505630655442</v>
+        <v>-0.04146438523776166</v>
       </c>
       <c r="C61">
-        <v>-0.06320471304823105</v>
+        <v>0.05956190950466085</v>
       </c>
       <c r="D61">
-        <v>-0.00925543993747569</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.03847816375674586</v>
+      </c>
+      <c r="E61">
+        <v>-0.05144882346150396</v>
+      </c>
+      <c r="F61">
+        <v>0.05725445465763248</v>
+      </c>
+      <c r="G61">
+        <v>0.0768375611842245</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01680839056768801</v>
+        <v>-0.01549100697275513</v>
       </c>
       <c r="C63">
-        <v>-0.03343282800620373</v>
+        <v>0.03084528310402561</v>
       </c>
       <c r="D63">
-        <v>0.02273461826498818</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01290792243752642</v>
+      </c>
+      <c r="E63">
+        <v>-0.06259097006764594</v>
+      </c>
+      <c r="F63">
+        <v>0.03868204907951187</v>
+      </c>
+      <c r="G63">
+        <v>0.07655568036107807</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05083876068081792</v>
+        <v>-0.0560786230258114</v>
       </c>
       <c r="C64">
-        <v>-0.04620725130411794</v>
+        <v>0.05665947282869151</v>
       </c>
       <c r="D64">
-        <v>0.00404800108349043</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.001349182737071482</v>
+      </c>
+      <c r="E64">
+        <v>-0.03727634044133951</v>
+      </c>
+      <c r="F64">
+        <v>0.06278735294512609</v>
+      </c>
+      <c r="G64">
+        <v>0.06539647319081665</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08086196079854198</v>
+        <v>-0.06572292171686095</v>
       </c>
       <c r="C65">
-        <v>-0.03110812410398255</v>
+        <v>0.02892824941022563</v>
       </c>
       <c r="D65">
-        <v>-0.05611463799714701</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08448787164849458</v>
+      </c>
+      <c r="E65">
+        <v>-0.0563552629749972</v>
+      </c>
+      <c r="F65">
+        <v>0.008647806135346197</v>
+      </c>
+      <c r="G65">
+        <v>0.02564031624500007</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06221759571385176</v>
+        <v>-0.05280135271463595</v>
       </c>
       <c r="C66">
-        <v>-0.08631241182851579</v>
+        <v>0.0799565013686119</v>
       </c>
       <c r="D66">
-        <v>-0.0341588615942667</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07140949908447675</v>
+      </c>
+      <c r="E66">
+        <v>-0.05833370395182249</v>
+      </c>
+      <c r="F66">
+        <v>0.07064365650722701</v>
+      </c>
+      <c r="G66">
+        <v>0.07991026233714132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05131349935660011</v>
+        <v>-0.04482613569444775</v>
       </c>
       <c r="C67">
-        <v>-0.03135195548544768</v>
+        <v>0.02848678318621848</v>
       </c>
       <c r="D67">
-        <v>0.02515738182261767</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.003110005550773663</v>
+      </c>
+      <c r="E67">
+        <v>-0.02766796284123357</v>
+      </c>
+      <c r="F67">
+        <v>0.0332556433861654</v>
+      </c>
+      <c r="G67">
+        <v>0.03916006413241878</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1281506181313069</v>
+        <v>-0.1509318468474642</v>
       </c>
       <c r="C68">
-        <v>0.2802544267126639</v>
+        <v>-0.2441982968220693</v>
       </c>
       <c r="D68">
-        <v>0.006346609479044446</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01620737900696015</v>
+      </c>
+      <c r="E68">
+        <v>-0.03705641742270879</v>
+      </c>
+      <c r="F68">
+        <v>0.001702653135638579</v>
+      </c>
+      <c r="G68">
+        <v>0.03105298074073246</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09121735364657403</v>
+        <v>-0.08666274969452938</v>
       </c>
       <c r="C69">
-        <v>-0.07300193662220925</v>
+        <v>0.09031040551732954</v>
       </c>
       <c r="D69">
-        <v>0.05336856121482513</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01886453996645497</v>
+      </c>
+      <c r="E69">
+        <v>-0.05577240135894236</v>
+      </c>
+      <c r="F69">
+        <v>0.05823405272520633</v>
+      </c>
+      <c r="G69">
+        <v>0.07876313140177704</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1172436788881153</v>
+        <v>-0.144104019078105</v>
       </c>
       <c r="C71">
-        <v>0.2549532743955874</v>
+        <v>-0.2412006113555636</v>
       </c>
       <c r="D71">
-        <v>-0.01222739802787676</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.003260306433980211</v>
+      </c>
+      <c r="E71">
+        <v>-0.05752671473448868</v>
+      </c>
+      <c r="F71">
+        <v>0.01089887752325558</v>
+      </c>
+      <c r="G71">
+        <v>0.05687841778013526</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09381361700771593</v>
+        <v>-0.1005368494527992</v>
       </c>
       <c r="C72">
-        <v>-0.05395556875020109</v>
+        <v>0.05783990490715547</v>
       </c>
       <c r="D72">
-        <v>-0.0005838060793928334</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02614007628254439</v>
+      </c>
+      <c r="E72">
+        <v>-0.02635945618318881</v>
+      </c>
+      <c r="F72">
+        <v>0.03304089099312646</v>
+      </c>
+      <c r="G72">
+        <v>0.07623558722646832</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4024726575991022</v>
+        <v>-0.3408029604879896</v>
       </c>
       <c r="C73">
-        <v>-0.04347604961646285</v>
+        <v>0.07013978099321003</v>
       </c>
       <c r="D73">
-        <v>-0.4371340384505656</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.5315874575434426</v>
+      </c>
+      <c r="E73">
+        <v>0.4304053841943482</v>
+      </c>
+      <c r="F73">
+        <v>-0.2241431733976777</v>
+      </c>
+      <c r="G73">
+        <v>0.009651212464530608</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1045405396410532</v>
+        <v>-0.1095491157020588</v>
       </c>
       <c r="C74">
-        <v>-0.09527628607889915</v>
+        <v>0.09465092365002482</v>
       </c>
       <c r="D74">
-        <v>0.04134841629219302</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04894333798793415</v>
+      </c>
+      <c r="E74">
+        <v>-0.06092373789511239</v>
+      </c>
+      <c r="F74">
+        <v>-0.0170952996137663</v>
+      </c>
+      <c r="G74">
+        <v>0.05482009817860139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2557616485998793</v>
+        <v>-0.2588207468835637</v>
       </c>
       <c r="C75">
-        <v>-0.10022355002</v>
+        <v>0.1295039469242467</v>
       </c>
       <c r="D75">
-        <v>0.139661983701076</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1571803089306583</v>
+      </c>
+      <c r="E75">
+        <v>-0.0299243048044716</v>
+      </c>
+      <c r="F75">
+        <v>-0.05579239469616106</v>
+      </c>
+      <c r="G75">
+        <v>-0.03812109634504875</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1145738910529757</v>
+        <v>-0.128577074910477</v>
       </c>
       <c r="C76">
-        <v>-0.08084783451978901</v>
+        <v>0.09282268609279615</v>
       </c>
       <c r="D76">
-        <v>0.07274793794546461</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.0826141640130576</v>
+      </c>
+      <c r="E76">
+        <v>-0.06682960391466639</v>
+      </c>
+      <c r="F76">
+        <v>0.005822734679253554</v>
+      </c>
+      <c r="G76">
+        <v>0.03654491316960871</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07768705139726718</v>
+        <v>-0.06376625609157847</v>
       </c>
       <c r="C77">
-        <v>-0.05244164315605347</v>
+        <v>0.06230190929525199</v>
       </c>
       <c r="D77">
-        <v>-0.04635332667580173</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.04647245419490091</v>
+      </c>
+      <c r="E77">
+        <v>-0.1000672683872955</v>
+      </c>
+      <c r="F77">
+        <v>0.173968151658959</v>
+      </c>
+      <c r="G77">
+        <v>-0.09274860445422857</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04837118828223222</v>
+        <v>-0.04566115024603495</v>
       </c>
       <c r="C78">
-        <v>-0.04656531565210888</v>
+        <v>0.05604268367365948</v>
       </c>
       <c r="D78">
-        <v>-0.01918224069918424</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.05510027578588025</v>
+      </c>
+      <c r="E78">
+        <v>-0.05846653951878968</v>
+      </c>
+      <c r="F78">
+        <v>0.06187572823472154</v>
+      </c>
+      <c r="G78">
+        <v>0.06415329900557461</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.03018630157899</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0454157563468669</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.07944994254917082</v>
+      </c>
+      <c r="E79">
+        <v>-0.05946569828224357</v>
+      </c>
+      <c r="F79">
+        <v>-0.02358660824643922</v>
+      </c>
+      <c r="G79">
+        <v>0.03891550886287258</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03881993388790054</v>
+        <v>-0.02999394324105269</v>
       </c>
       <c r="C80">
-        <v>-0.04859075567763449</v>
+        <v>0.04989542800966287</v>
       </c>
       <c r="D80">
-        <v>-0.02934521053551379</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03965320522500024</v>
+      </c>
+      <c r="E80">
+        <v>-0.0200290322690106</v>
+      </c>
+      <c r="F80">
+        <v>0.05330103306711019</v>
+      </c>
+      <c r="G80">
+        <v>-0.001633158356390273</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1391378165448561</v>
+        <v>-0.1396436192593002</v>
       </c>
       <c r="C81">
-        <v>-0.07552870673362788</v>
+        <v>0.09337519854005599</v>
       </c>
       <c r="D81">
-        <v>0.1030279909714815</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1265465184800097</v>
+      </c>
+      <c r="E81">
+        <v>-0.06512112997675128</v>
+      </c>
+      <c r="F81">
+        <v>-0.03502872527110394</v>
+      </c>
+      <c r="G81">
+        <v>-0.008574330015235554</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1793016874087006</v>
+        <v>-0.2157935108154148</v>
       </c>
       <c r="C82">
-        <v>-0.08925005001786435</v>
+        <v>0.1540048643036419</v>
       </c>
       <c r="D82">
-        <v>0.1855787516514878</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2497074531195936</v>
+      </c>
+      <c r="E82">
+        <v>0.02908832309087672</v>
+      </c>
+      <c r="F82">
+        <v>0.03806630448880298</v>
+      </c>
+      <c r="G82">
+        <v>0.04283972866206717</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03921090204779985</v>
+        <v>-0.02721336297313945</v>
       </c>
       <c r="C83">
-        <v>-0.03119475304797591</v>
+        <v>0.04348471589513404</v>
       </c>
       <c r="D83">
-        <v>-0.03851133885765414</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.02915666884426982</v>
+      </c>
+      <c r="E83">
+        <v>-0.02885266684388437</v>
+      </c>
+      <c r="F83">
+        <v>0.04665087131654747</v>
+      </c>
+      <c r="G83">
+        <v>0.0101460346331114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0004437780815256151</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.000214178716254801</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.002076469521479823</v>
+      </c>
+      <c r="E84">
+        <v>-0.002379859569060558</v>
+      </c>
+      <c r="F84">
+        <v>-0.0009333051066924833</v>
+      </c>
+      <c r="G84">
+        <v>0.002302519126824757</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2206882151535044</v>
+        <v>-0.2036757265866295</v>
       </c>
       <c r="C85">
-        <v>-0.1001335885066507</v>
+        <v>0.1149562421944637</v>
       </c>
       <c r="D85">
-        <v>0.1657856445075635</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1268575819101199</v>
+      </c>
+      <c r="E85">
+        <v>0.01438557891089279</v>
+      </c>
+      <c r="F85">
+        <v>-0.1003123384530745</v>
+      </c>
+      <c r="G85">
+        <v>-0.004516490552711509</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.007525500910797297</v>
+        <v>-0.01071985930946373</v>
       </c>
       <c r="C86">
-        <v>-0.02627330373416846</v>
+        <v>0.01851869648038907</v>
       </c>
       <c r="D86">
-        <v>-0.03851264470152058</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.0521639606406703</v>
+      </c>
+      <c r="E86">
+        <v>-0.08010354711672296</v>
+      </c>
+      <c r="F86">
+        <v>0.09478529189789811</v>
+      </c>
+      <c r="G86">
+        <v>0.07616545958700868</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02403469289308658</v>
+        <v>-0.0248639099729856</v>
       </c>
       <c r="C87">
-        <v>-0.005528533796968514</v>
+        <v>0.01293508446875756</v>
       </c>
       <c r="D87">
-        <v>-0.07603211351468528</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.07462338077397628</v>
+      </c>
+      <c r="E87">
+        <v>-0.1269189071606296</v>
+      </c>
+      <c r="F87">
+        <v>0.07843616697823529</v>
+      </c>
+      <c r="G87">
+        <v>0.0177863062799152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1085237299058378</v>
+        <v>-0.09357870368602782</v>
       </c>
       <c r="C88">
-        <v>-0.07181646072422374</v>
+        <v>0.06150187577018535</v>
       </c>
       <c r="D88">
-        <v>0.02662626266590765</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.006051021079580685</v>
+      </c>
+      <c r="E88">
+        <v>-0.05415470989757083</v>
+      </c>
+      <c r="F88">
+        <v>0.06592940568951636</v>
+      </c>
+      <c r="G88">
+        <v>0.04225747555358301</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1834862950869746</v>
+        <v>-0.219541571290127</v>
       </c>
       <c r="C89">
-        <v>0.3773004944759074</v>
+        <v>-0.3810098004648372</v>
       </c>
       <c r="D89">
-        <v>0.02710708336340042</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02454776141474845</v>
+      </c>
+      <c r="E89">
+        <v>-0.0734006977094576</v>
+      </c>
+      <c r="F89">
+        <v>0.09828507223419748</v>
+      </c>
+      <c r="G89">
+        <v>-0.005636329564318364</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1778076199341904</v>
+        <v>-0.2008273988337922</v>
       </c>
       <c r="C90">
-        <v>0.3371061020313934</v>
+        <v>-0.3116791633578177</v>
       </c>
       <c r="D90">
-        <v>0.03745436508876072</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02507026522819547</v>
+      </c>
+      <c r="E90">
+        <v>-0.0560699110695724</v>
+      </c>
+      <c r="F90">
+        <v>0.02907367251538969</v>
+      </c>
+      <c r="G90">
+        <v>0.01542833719723223</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1903466499927186</v>
+        <v>-0.1872089944511934</v>
       </c>
       <c r="C91">
-        <v>-0.1273140252999588</v>
+        <v>0.1429382115818166</v>
       </c>
       <c r="D91">
-        <v>0.1250725824594181</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1302826014236292</v>
+      </c>
+      <c r="E91">
+        <v>-0.0447318442485525</v>
+      </c>
+      <c r="F91">
+        <v>-0.01720402310178934</v>
+      </c>
+      <c r="G91">
+        <v>-0.0007776728919117373</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1605532156784041</v>
+        <v>-0.1804254067836427</v>
       </c>
       <c r="C92">
-        <v>0.2849707971278315</v>
+        <v>-0.2901862713228311</v>
       </c>
       <c r="D92">
-        <v>0.0335465776545151</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.02866623091972561</v>
+      </c>
+      <c r="E92">
+        <v>-0.07174805605569884</v>
+      </c>
+      <c r="F92">
+        <v>0.07121469864213151</v>
+      </c>
+      <c r="G92">
+        <v>0.03159960939181686</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1976089339028864</v>
+        <v>-0.2214360153955408</v>
       </c>
       <c r="C93">
-        <v>0.3391085306049377</v>
+        <v>-0.319821978612665</v>
       </c>
       <c r="D93">
-        <v>0.03619812554555855</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.02082983080918356</v>
+      </c>
+      <c r="E93">
+        <v>-0.04284342802834537</v>
+      </c>
+      <c r="F93">
+        <v>0.004694673536403089</v>
+      </c>
+      <c r="G93">
+        <v>0.04034772549266431</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3367071218684067</v>
+        <v>-0.3380789215296285</v>
       </c>
       <c r="C94">
-        <v>-0.1485306305752513</v>
+        <v>0.1861242610808821</v>
       </c>
       <c r="D94">
-        <v>0.3529705322181088</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4028424158798879</v>
+      </c>
+      <c r="E94">
+        <v>0.01041377294887618</v>
+      </c>
+      <c r="F94">
+        <v>-0.1506984993822138</v>
+      </c>
+      <c r="G94">
+        <v>-0.3968986644450359</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1168534026272538</v>
+        <v>-0.0861986283650624</v>
       </c>
       <c r="C95">
-        <v>-0.06422381350571479</v>
+        <v>0.06163767518888229</v>
       </c>
       <c r="D95">
-        <v>-0.1904417156307514</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1931700434880233</v>
+      </c>
+      <c r="E95">
+        <v>0.08453319536500774</v>
+      </c>
+      <c r="F95">
+        <v>0.695578897587483</v>
+      </c>
+      <c r="G95">
+        <v>-0.5952862818917052</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1942491180172511</v>
+        <v>-0.1870625753146523</v>
       </c>
       <c r="C98">
-        <v>-0.01983376320610001</v>
+        <v>0.04674761825038731</v>
       </c>
       <c r="D98">
-        <v>-0.1472408879489973</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.2011807753983387</v>
+      </c>
+      <c r="E98">
+        <v>0.129470308242568</v>
+      </c>
+      <c r="F98">
+        <v>-0.07741018090168177</v>
+      </c>
+      <c r="G98">
+        <v>0.07465473675638627</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007212520764967541</v>
+        <v>-0.005583770338725107</v>
       </c>
       <c r="C101">
-        <v>-0.03379610883774659</v>
+        <v>0.02914888524554338</v>
       </c>
       <c r="D101">
-        <v>0.0181064879074295</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01399746097601779</v>
+      </c>
+      <c r="E101">
+        <v>-0.04886974363770571</v>
+      </c>
+      <c r="F101">
+        <v>0.06909813887310357</v>
+      </c>
+      <c r="G101">
+        <v>0.08313660326925582</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1247810181615454</v>
+        <v>-0.1268992783605852</v>
       </c>
       <c r="C102">
-        <v>-0.06784237613357273</v>
+        <v>0.09991747453748365</v>
       </c>
       <c r="D102">
-        <v>0.04724501870360139</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0572467796061539</v>
+      </c>
+      <c r="E102">
+        <v>0.0137489910780166</v>
+      </c>
+      <c r="F102">
+        <v>0.02025125389648644</v>
+      </c>
+      <c r="G102">
+        <v>-0.0120367259783104</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
